--- a/medicine/Enfance/Benoît_Bouthillette/Benoît_Bouthillette.xlsx
+++ b/medicine/Enfance/Benoît_Bouthillette/Benoît_Bouthillette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Bouthillette</t>
+          <t>Benoît_Bouthillette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benoît Bouthillette, né le 15 décembre 1967 à Montréal, est un écrivain canadien, auteur de littérature d'enfance et de jeunesse et de roman policier. Il est lauréat du Prix Saint-Pacôme du roman policier 2005.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Bouthillette</t>
+          <t>Benoît_Bouthillette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait une entrée remarquée dans la littérature québécoise en remportant, en 2005, le prix Saint-Pacôme du roman policier pour La Trace de l'escargot, premier titre d'une série policière ayant pour héros Benjamin Sioui, un détective d'origine montagnaise. Son œuvre est commentée dans plusieurs pays. Le quotidien La Presse désigne La Trace de l’escargot, un roman policier, parmi sa sélection des dix plus beaux romans d’amour de tous les temps, soulignant ainsi la richesse de l'œuvre.
 En 2006, il reçoit le prix Alibis pour la nouvelle policière Le Capuchon du moine. Dès lors, ses présences dans plusieurs salons du livre européens lui valent d’être identifié par le quotidien Le Monde comme l’un des représentants de la relève littéraire au Québec. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Bouthillette</t>
+          <t>Benoît_Bouthillette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2005 : Prix Saint-Pacôme du roman policier pour La Trace de l'escargot
 2006 : Prix Alibis de la nouvelle policière pour Le Capuchon du moine</t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Bouthillette</t>
+          <t>Benoît_Bouthillette</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,24 +595,107 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans
-Série Les enquêtes de Benjamin Sioui / Bestiaire pour un printemps fâché
-La Trace de l'escargot
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Les enquêtes de Benjamin Sioui / Bestiaire pour un printemps fâché</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Trace de l'escargot
 JCL, coll. « Couche-Tard », 2005, 368 p.  (ISBN 2-89431-327-6)
 La Nébuleuse du chat
 La Bagnole, coll. « Gazoline », 2007, 172 p.  (ISBN 978-2-923342-12-2) (OCLC 239619623)
 La Mue du serpent de terre
 La Bagnole, coll. « Parking », 2008, 128 p.  (ISBN 978-2-923342-25-2) (court roman)
 L'Heure sans ombre
-Druide, 2015, 542 p.
-Ouvrages de littérature d'enfance et de jeunesse
-Série Élise
-La Phalange des avalanches
+Druide, 2015, 542 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benoît_Bouthillette</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Bouthillette</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Élise</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Phalange des avalanches
 Les 400 Coups, coll. « Coups de tête », 2010, 168 p.  (ISBN 978-2-923603-28-5)
 Les Derniers Vivants
-Les 400 Coups, coll. « Coups de tête », 2012, 248 p.  (ISBN 978-2-89671-071-3)
-Série Emo
-1. En route pour le concert de notre vie
+Les 400 Coups, coll. « Coups de tête », 2012, 248 p.  (ISBN 978-2-89671-071-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benoît_Bouthillette</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Bouthillette</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Emo</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1. En route pour le concert de notre vie
 La courte échelle, coll. « Epizzod », 2010, 56 p.  (ISBN 978-2-89021-970-0)
 2. Je t'en prie, fais que je ne meure plus jamais seul
 La courte échelle, coll. « Epizzod », 2010, 56 p.  (ISBN 978-2-89021-971-7)
@@ -621,15 +720,90 @@
 12. L'abîme appelle l'abîme
 La courte échelle, coll. « Epizzod », 2010, 56 p.  (ISBN 978-2-89021-977-9)
 13. Mais le chemin sera long qui nous mènera jusqu'à la mort
-La courte échelle, coll. « Epizzod », 2010, 56 p.  (ISBN 978-2-89021-982-3)
-Nouvelles
-Série Les enquêtes de Benjamin Sioui / Bestiaire pour un printemps fâché
-Le Rire de la mouette
+La courte échelle, coll. « Epizzod », 2010, 56 p.  (ISBN 978-2-89021-982-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Benoît_Bouthillette</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Bouthillette</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Les enquêtes de Benjamin Sioui / Bestiaire pour un printemps fâché</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Rire de la mouette
 Alibis, vol. 8 no 3, Été 2009, 44 p.  (ISBN 978-2-89615-911-6)
 Le Regret/Le Rat des champs
-Moebius no 125, Mai 2010, 8 p.  (ISBN 978-2-89031-687-4)
-Autres nouvelles
-Le Capuchon du moine
+Moebius no 125, Mai 2010, 8 p.  (ISBN 978-2-89031-687-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Benoît_Bouthillette</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Bouthillette</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres nouvelles</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Capuchon du moine
 Alibis no 19, Été 2006, 16 p.
 Juste cinq minutes encore
 Le Devoir, 22 juillet 2006
